--- a/medicine/Psychotrope/Office_national_interprofessionnel_des_vins_de_table/Office_national_interprofessionnel_des_vins_de_table.xlsx
+++ b/medicine/Psychotrope/Office_national_interprofessionnel_des_vins_de_table/Office_national_interprofessionnel_des_vins_de_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Office national interprofessionnel des vins de table est un organisme public français créé en 1976, chargé de la réglementation du marché des vins de table et supprimé en 1983, remplacé par l'Office national interprofessionnel des vins (Onivins).
 </t>
@@ -511,9 +523,11 @@
           <t>Administration</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Institut des vins de consommation courante (IVCC) a été transformé par le décret no 76-302 du 7 avril 1976 en un établissement public à caractère industriel et commercial (ÉPIC) doté de la personnalité civile et de l’autonomie financière : l’Office national interprofessionnel des vins de table (ONIVIT), lesdits « vins de table » remplaçant les anciens « vins de consommation courante » depuis le règlement communautaire du 28 avril 1970[1]. L’ONIVIT marque un engagement des pouvoirs publics dans la gestion du marché vitivinicole. L’IVCC ne disposait que de possibilités restreintes d’interventions réelles et ne bénéficiait que de moyens d’informations limités. Surtout, l’une des faiblesses de cet Institut était de s’occuper trop de la vigne et pas assez du vin. Les pouvoirs publics entendaient renforcer leur maîtrise de « l’outil » de production tout en agissant sur les conditions du marché, c’est-à-dire orienter et régulariser à la fois la vigne et le vin.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Institut des vins de consommation courante (IVCC) a été transformé par le décret no 76-302 du 7 avril 1976 en un établissement public à caractère industriel et commercial (ÉPIC) doté de la personnalité civile et de l’autonomie financière : l’Office national interprofessionnel des vins de table (ONIVIT), lesdits « vins de table » remplaçant les anciens « vins de consommation courante » depuis le règlement communautaire du 28 avril 1970. L’ONIVIT marque un engagement des pouvoirs publics dans la gestion du marché vitivinicole. L’IVCC ne disposait que de possibilités restreintes d’interventions réelles et ne bénéficiait que de moyens d’informations limités. Surtout, l’une des faiblesses de cet Institut était de s’occuper trop de la vigne et pas assez du vin. Les pouvoirs publics entendaient renforcer leur maîtrise de « l’outil » de production tout en agissant sur les conditions du marché, c’est-à-dire orienter et régulariser à la fois la vigne et le vin.
 L’ONIVIT est un ÉPIC administré par un Conseil de direction, dont le président fut Jean-François Breton (de 1976 à 1983), et géré administrativement et financièrement par un directeur (Pierre Murret-Labarthe de 1976 à 1980 et Jean-Pierre Beysson de 1980 à 1982) ainsi que par des directeurs-adjoint (Bernard Blanchet de 1954 à 1980 et Armand Collomb de 1976 à 1983), avec, parfois, un secrétaire général (Jacques Nespoulous de 1976 à 1977 et Jean Chauveau de 1980 à 1981). 
 Le Conseil de direction se réunit sur convocation de son président. La convocation est de droit si elle est demandée par la moitié de ses membres ou par l’un des deux ministres de tutelles : agriculture (tutelle technique) et budget (tutelle financière). Pour régulièrement  délibérer, le Conseil doit compter plus de la moitié de ses membres en exercice. Le président est nommé par arrêté conjoint des ministres de l’agriculture et du budget, tandis que le directeur est nommé par décret sur proposition du ministre de l’agriculture. L’ONIVIT dispose, en dotation initiale, du personnel provenant de l’IVCC (soit 250 agents) renforcé par une dizaine d’emplois nouveaux. 
 Le personnel, régi par le décret no 77-871 du 20 juillet 1977, est réparti entre le service central (une centaine d’agents) à Paris et des centres régionaux (Angers, Avignon, Bordeaux, Dijon, Lyon, Montpellier et Toulouse). À ces sept centres régionaux, il convient d’ajouter la délégation régionale de Bastia.
@@ -548,14 +562,86 @@
           <t>Missions et interventions de l’ONIVIT</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’article premier du décret du 7 avril 1976 qualifie l’ONIVIT d’« établissement public à caractère industriel et commercial ». Cette nature juridique constitue un des éléments de la transformation de l’IVCC, implicitement organisé sous la forme d’un établissement public à caractère administratif.
 La modification de statut n’est pas justifiée par un changement fondamental puisque l’article 3 prévoit expressément que l’ONIVIT reprend les attributions exercées jusqu’alors par l’IVCC. Ce nonobstant, l’article 4 précise que l’ONIVIT se substitue au FORMA pour l’exercice de sa mission d’orientation et de régularisation du marché vitivinicole. Aux termes de l’article 2, les compétences de l’ONIVIT s’exercent « en conformité avec les dispositions du traité instituant la Communauté économique européenne et dans le cadre de la politique définie par le gouvernement ». 
-Missions de l'ONIVIT
-Si l’orientation de la politique viticole est définie à Bruxelles, c’est au gouvernement français qu'il appartient de l’appliquer[2]. Dès lors qu'il agit en conformité avec les décisions de la Communauté économique européenne (CEE), un état membre peut disposer d’un organisme d’intervention. Dans ce cadre, l'ONIVIT définit son action.
-Interventions de l'ONIVIT
-Si l’on excepte les attributions qui avaient été conférées à l’IVCC, l’Office des vins de table est chargé de préparer et de mettre en œuvre les mesures d’interventions et de gestion du marché ainsi que celle prises en vue de la rénovation du secteur vitivinicole.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Office_national_interprofessionnel_des_vins_de_table</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Office_national_interprofessionnel_des_vins_de_table</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Missions et interventions de l’ONIVIT</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Missions de l'ONIVIT</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si l’orientation de la politique viticole est définie à Bruxelles, c’est au gouvernement français qu'il appartient de l’appliquer. Dès lors qu'il agit en conformité avec les décisions de la Communauté économique européenne (CEE), un état membre peut disposer d’un organisme d’intervention. Dans ce cadre, l'ONIVIT définit son action.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Office_national_interprofessionnel_des_vins_de_table</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Office_national_interprofessionnel_des_vins_de_table</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Missions et interventions de l’ONIVIT</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Interventions de l'ONIVIT</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si l’on excepte les attributions qui avaient été conférées à l’IVCC, l’Office des vins de table est chargé de préparer et de mettre en œuvre les mesures d’interventions et de gestion du marché ainsi que celle prises en vue de la rénovation du secteur vitivinicole.
 De même, les dispositions destinées à assurer la connaissance et la transparence du marché, en particulier les opérations de cotation représentatives de l’ensemble des transactions ainsi que la recherche et l’exploitation de toutes les informations relatives à la nature, au volume et au prix des échanges sur les marchés intérieurs et extérieurs. 
 À ce titre, l'ONIVIT a connaissance de tous les contrats de vente des producteurs des vins de table rouges et rosés. 
 Depuis le 20 janvier 1978, l’Office a compétence exclusive pour viser les contrats de vente conformes à l’accord national interprofessionnel sur les vins de table rouges et rosés et les vins de pays du 21 juillet 1976  conclu par l’Association nationale interprofessionnelle des vins de table et des vins de pays (ANIVIT.)
